--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Selplg-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Selplg-Sele.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.7825415</v>
+        <v>2.1172255</v>
       </c>
       <c r="H2">
-        <v>7.565083</v>
+        <v>4.234451</v>
       </c>
       <c r="I2">
-        <v>0.02134139439091907</v>
+        <v>0.006295392006363395</v>
       </c>
       <c r="J2">
-        <v>0.0143760362842082</v>
+        <v>0.004213039461358209</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N2">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O2">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P2">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q2">
-        <v>56.96560454581</v>
+        <v>15.602783226524</v>
       </c>
       <c r="R2">
-        <v>227.86241818324</v>
+        <v>62.411132906096</v>
       </c>
       <c r="S2">
-        <v>0.01591454041412607</v>
+        <v>0.004691709152408835</v>
       </c>
       <c r="T2">
-        <v>0.00951110826525222</v>
+        <v>0.00278507900098896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.7825415</v>
+        <v>2.1172255</v>
       </c>
       <c r="H3">
-        <v>7.565083</v>
+        <v>4.234451</v>
       </c>
       <c r="I3">
-        <v>0.02134139439091907</v>
+        <v>0.006295392006363395</v>
       </c>
       <c r="J3">
-        <v>0.0143760362842082</v>
+        <v>0.004213039461358209</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.33124</v>
       </c>
       <c r="O3">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P3">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q3">
-        <v>0.4176430154866666</v>
+        <v>0.2337699248733333</v>
       </c>
       <c r="R3">
-        <v>2.50585809292</v>
+        <v>1.40261954924</v>
       </c>
       <c r="S3">
-        <v>0.000116677365256346</v>
+        <v>7.029390078442341E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001045959566704607</v>
+        <v>6.259149723884226E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.7825415</v>
+        <v>2.1172255</v>
       </c>
       <c r="H4">
-        <v>7.565083</v>
+        <v>4.234451</v>
       </c>
       <c r="I4">
-        <v>0.02134139439091907</v>
+        <v>0.006295392006363395</v>
       </c>
       <c r="J4">
-        <v>0.0143760362842082</v>
+        <v>0.004213039461358209</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N4">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O4">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P4">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q4">
-        <v>0.2064322023625</v>
+        <v>0.1796317630965</v>
       </c>
       <c r="R4">
-        <v>1.238593214175</v>
+        <v>1.077790578579</v>
       </c>
       <c r="S4">
-        <v>5.767117988949176E-05</v>
+        <v>5.401472126783754E-05</v>
       </c>
       <c r="T4">
-        <v>5.169959245825138E-05</v>
+        <v>4.809609709185269E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.7825415</v>
+        <v>2.1172255</v>
       </c>
       <c r="H5">
-        <v>7.565083</v>
+        <v>4.234451</v>
       </c>
       <c r="I5">
-        <v>0.02134139439091907</v>
+        <v>0.006295392006363395</v>
       </c>
       <c r="J5">
-        <v>0.0143760362842082</v>
+        <v>0.004213039461358209</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N5">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O5">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P5">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q5">
-        <v>18.80118052471967</v>
+        <v>4.919818066605</v>
       </c>
       <c r="R5">
-        <v>112.807083148318</v>
+        <v>29.51890839963</v>
       </c>
       <c r="S5">
-        <v>0.005252505431647161</v>
+        <v>0.001479374231902299</v>
       </c>
       <c r="T5">
-        <v>0.004708632469827263</v>
+        <v>0.001317272866038554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>4.713052</v>
       </c>
       <c r="I6">
-        <v>0.008863802421106719</v>
+        <v>0.004671287948366863</v>
       </c>
       <c r="J6">
-        <v>0.008956280659625284</v>
+        <v>0.004689220411201648</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N6">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O6">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P6">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q6">
-        <v>23.65974098242667</v>
+        <v>11.57753054509867</v>
       </c>
       <c r="R6">
-        <v>141.95844589456</v>
+        <v>69.46518327059201</v>
       </c>
       <c r="S6">
-        <v>0.006609846539060022</v>
+        <v>0.003481327993354002</v>
       </c>
       <c r="T6">
-        <v>0.005925427101297304</v>
+        <v>0.003099863986091473</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>4.713052</v>
       </c>
       <c r="I7">
-        <v>0.008863802421106719</v>
+        <v>0.004671287948366863</v>
       </c>
       <c r="J7">
-        <v>0.008956280659625284</v>
+        <v>0.004689220411201648</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>0.33124</v>
       </c>
       <c r="O7">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P7">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q7">
         <v>0.1734612604977778</v>
@@ -889,10 +889,10 @@
         <v>1.56115134448</v>
       </c>
       <c r="S7">
-        <v>4.846005343903934E-05</v>
+        <v>5.215927002576853E-05</v>
       </c>
       <c r="T7">
-        <v>6.516335415984576E-05</v>
+        <v>6.966593337472085E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4.713052</v>
       </c>
       <c r="I8">
-        <v>0.008863802421106719</v>
+        <v>0.004671287948366863</v>
       </c>
       <c r="J8">
-        <v>0.008956280659625284</v>
+        <v>0.004689220411201648</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N8">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O8">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P8">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q8">
-        <v>0.08573827096666668</v>
+        <v>0.133289823612</v>
       </c>
       <c r="R8">
-        <v>0.7716444387000001</v>
+        <v>1.199608412508</v>
       </c>
       <c r="S8">
-        <v>2.395279027082091E-05</v>
+        <v>4.007984192847735E-05</v>
       </c>
       <c r="T8">
-        <v>3.22088822600554E-05</v>
+        <v>5.353218317816182E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4.713052</v>
       </c>
       <c r="I9">
-        <v>0.008863802421106719</v>
+        <v>0.004671287948366863</v>
       </c>
       <c r="J9">
-        <v>0.008956280659625284</v>
+        <v>0.004689220411201648</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N9">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O9">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P9">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q9">
-        <v>7.80876574426578</v>
+        <v>3.65058868764</v>
       </c>
       <c r="R9">
-        <v>70.27889169839202</v>
+        <v>32.85529818876</v>
       </c>
       <c r="S9">
-        <v>0.002181543038336836</v>
+        <v>0.001097720843058615</v>
       </c>
       <c r="T9">
-        <v>0.002933481321908078</v>
+        <v>0.001466158308557293</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.41654966666665</v>
+        <v>75.40439600000001</v>
       </c>
       <c r="H10">
-        <v>226.249649</v>
+        <v>226.213188</v>
       </c>
       <c r="I10">
-        <v>0.4255060598908616</v>
+        <v>0.2242086314485916</v>
       </c>
       <c r="J10">
-        <v>0.4299454696416904</v>
+        <v>0.2250693390296979</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N10">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O10">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P10">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q10">
-        <v>1135.783796296953</v>
+        <v>555.6887752934081</v>
       </c>
       <c r="R10">
-        <v>6814.702777781719</v>
+        <v>3334.132651760448</v>
       </c>
       <c r="S10">
-        <v>0.3173051049311984</v>
+        <v>0.1670939136360582</v>
       </c>
       <c r="T10">
-        <v>0.2844496096889239</v>
+        <v>0.1487847184075499</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.41654966666665</v>
+        <v>75.40439600000001</v>
       </c>
       <c r="H11">
-        <v>226.249649</v>
+        <v>226.213188</v>
       </c>
       <c r="I11">
-        <v>0.4255060598908616</v>
+        <v>0.2242086314485916</v>
       </c>
       <c r="J11">
-        <v>0.4299454696416904</v>
+        <v>0.2250693390296979</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>0.33124</v>
       </c>
       <c r="O11">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P11">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q11">
-        <v>8.326992637195554</v>
+        <v>8.325650710346666</v>
       </c>
       <c r="R11">
-        <v>74.94293373475999</v>
+        <v>74.93085639312</v>
       </c>
       <c r="S11">
-        <v>0.002326320626444158</v>
+        <v>0.00250349768181678</v>
       </c>
       <c r="T11">
-        <v>0.003128161116475649</v>
+        <v>0.003343768089910996</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.41654966666665</v>
+        <v>75.40439600000001</v>
       </c>
       <c r="H12">
-        <v>226.249649</v>
+        <v>226.213188</v>
       </c>
       <c r="I12">
-        <v>0.4255060598908616</v>
+        <v>0.2242086314485916</v>
       </c>
       <c r="J12">
-        <v>0.4299454696416904</v>
+        <v>0.2250693390296979</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N12">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O12">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P12">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q12">
-        <v>4.115858198058333</v>
+        <v>6.397535169828001</v>
       </c>
       <c r="R12">
-        <v>37.042723782525</v>
+        <v>57.577816528452</v>
       </c>
       <c r="S12">
-        <v>0.001149851601752717</v>
+        <v>0.001923719241200167</v>
       </c>
       <c r="T12">
-        <v>0.001546184575519188</v>
+        <v>0.002569393636508139</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.41654966666665</v>
+        <v>75.40439600000001</v>
       </c>
       <c r="H13">
-        <v>226.249649</v>
+        <v>226.213188</v>
       </c>
       <c r="I13">
-        <v>0.4255060598908616</v>
+        <v>0.2242086314485916</v>
       </c>
       <c r="J13">
-        <v>0.4299454696416904</v>
+        <v>0.2250693390296979</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N13">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O13">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P13">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q13">
-        <v>374.8591165052616</v>
+        <v>175.21794902916</v>
       </c>
       <c r="R13">
-        <v>3373.732048547354</v>
+        <v>1576.96154126244</v>
       </c>
       <c r="S13">
-        <v>0.1047247827314663</v>
+        <v>0.0526875008895164</v>
       </c>
       <c r="T13">
-        <v>0.1408215142607717</v>
+        <v>0.07037145889572891</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.7077325</v>
+        <v>1.7411535</v>
       </c>
       <c r="H14">
-        <v>3.415465</v>
+        <v>3.482307</v>
       </c>
       <c r="I14">
-        <v>0.009635160062801743</v>
+        <v>0.005177173534775417</v>
       </c>
       <c r="J14">
-        <v>0.006490457377327274</v>
+        <v>0.003464698684094803</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N14">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O14">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P14">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q14">
-        <v>25.71869053255</v>
+        <v>12.831340178268</v>
       </c>
       <c r="R14">
-        <v>102.8747621302</v>
+        <v>51.32536071307201</v>
       </c>
       <c r="S14">
-        <v>0.007185057424423909</v>
+        <v>0.003858344711840415</v>
       </c>
       <c r="T14">
-        <v>0.004294051683395896</v>
+        <v>0.002290379579477214</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.7077325</v>
+        <v>1.7411535</v>
       </c>
       <c r="H15">
-        <v>3.415465</v>
+        <v>3.482307</v>
       </c>
       <c r="I15">
-        <v>0.009635160062801743</v>
+        <v>0.005177173534775417</v>
       </c>
       <c r="J15">
-        <v>0.006490457377327274</v>
+        <v>0.003464698684094803</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.33124</v>
       </c>
       <c r="O15">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P15">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q15">
-        <v>0.1885564377666666</v>
+        <v>0.19224656178</v>
       </c>
       <c r="R15">
-        <v>1.1313386266</v>
+        <v>1.15347937068</v>
       </c>
       <c r="S15">
-        <v>5.267720887203296E-05</v>
+        <v>5.780795261508591E-05</v>
       </c>
       <c r="T15">
-        <v>4.722272434413148E-05</v>
+        <v>5.147368784650032E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.7077325</v>
+        <v>1.7411535</v>
       </c>
       <c r="H16">
-        <v>3.415465</v>
+        <v>3.482307</v>
       </c>
       <c r="I16">
-        <v>0.009635160062801743</v>
+        <v>0.005177173534775417</v>
       </c>
       <c r="J16">
-        <v>0.006490457377327274</v>
+        <v>0.003464698684094803</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N16">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O16">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P16">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q16">
-        <v>0.09319950118750001</v>
+        <v>0.1477246864005</v>
       </c>
       <c r="R16">
-        <v>0.559197007125</v>
+        <v>0.8863481184030001</v>
       </c>
       <c r="S16">
-        <v>2.603724194714889E-05</v>
+        <v>4.442036098045286E-05</v>
       </c>
       <c r="T16">
-        <v>2.334120439331883E-05</v>
+        <v>3.955303192211653E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.7077325</v>
+        <v>1.7411535</v>
       </c>
       <c r="H17">
-        <v>3.415465</v>
+        <v>3.482307</v>
       </c>
       <c r="I17">
-        <v>0.009635160062801743</v>
+        <v>0.005177173534775417</v>
       </c>
       <c r="J17">
-        <v>0.006490457377327274</v>
+        <v>0.003464698684094803</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N17">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O17">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P17">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q17">
-        <v>8.488310576481668</v>
+        <v>4.045935799485001</v>
       </c>
       <c r="R17">
-        <v>50.92986345889</v>
+        <v>24.27561479691001</v>
       </c>
       <c r="S17">
-        <v>0.002371388187558652</v>
+        <v>0.001216600509339464</v>
       </c>
       <c r="T17">
-        <v>0.002125841765193928</v>
+        <v>0.001083292384848973</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.559279333333333</v>
+        <v>197.2895866666667</v>
       </c>
       <c r="H18">
-        <v>7.677838</v>
+        <v>591.86876</v>
       </c>
       <c r="I18">
-        <v>0.01443965376432621</v>
+        <v>0.586623997698909</v>
       </c>
       <c r="J18">
-        <v>0.01459030623620025</v>
+        <v>0.5888759704209946</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N18">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O18">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P18">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q18">
-        <v>38.54310505910667</v>
+        <v>1453.915349881493</v>
       </c>
       <c r="R18">
-        <v>231.25863035464</v>
+        <v>8723.49209928896</v>
       </c>
       <c r="S18">
-        <v>0.01076782749941302</v>
+        <v>0.4371878949308688</v>
       </c>
       <c r="T18">
-        <v>0.009652868112757994</v>
+        <v>0.3892833462513499</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.559279333333333</v>
+        <v>197.2895866666667</v>
       </c>
       <c r="H19">
-        <v>7.677838</v>
+        <v>591.86876</v>
       </c>
       <c r="I19">
-        <v>0.01443965376432621</v>
+        <v>0.586623997698909</v>
       </c>
       <c r="J19">
-        <v>0.01459030623620025</v>
+        <v>0.5888759704209946</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>0.33124</v>
       </c>
       <c r="O19">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P19">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q19">
-        <v>0.2825785621244444</v>
+        <v>21.78340089582222</v>
       </c>
       <c r="R19">
-        <v>2.54320705912</v>
+        <v>196.0506080624</v>
       </c>
       <c r="S19">
-        <v>7.894426791308199E-05</v>
+        <v>0.006550201965235431</v>
       </c>
       <c r="T19">
-        <v>0.000106154923980453</v>
+        <v>0.008748702454532357</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.559279333333333</v>
+        <v>197.2895866666667</v>
       </c>
       <c r="H20">
-        <v>7.677838</v>
+        <v>591.86876</v>
       </c>
       <c r="I20">
-        <v>0.01443965376432621</v>
+        <v>0.586623997698909</v>
       </c>
       <c r="J20">
-        <v>0.01459030623620025</v>
+        <v>0.5888759704209946</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,28 +1677,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N20">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O20">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P20">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q20">
-        <v>0.1396726696166667</v>
+        <v>16.73864040156</v>
       </c>
       <c r="R20">
-        <v>1.25705402655</v>
+        <v>150.64776361404</v>
       </c>
       <c r="S20">
-        <v>3.902049952925175E-05</v>
+        <v>0.005033257927814906</v>
       </c>
       <c r="T20">
-        <v>5.247015737441029E-05</v>
+        <v>0.006722613473764239</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.559279333333333</v>
+        <v>197.2895866666667</v>
       </c>
       <c r="H21">
-        <v>7.677838</v>
+        <v>591.86876</v>
       </c>
       <c r="I21">
-        <v>0.01443965376432621</v>
+        <v>0.586623997698909</v>
       </c>
       <c r="J21">
-        <v>0.01459030623620025</v>
+        <v>0.5888759704209946</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N21">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O21">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P21">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q21">
-        <v>12.72093716861645</v>
+        <v>458.4437854332</v>
       </c>
       <c r="R21">
-        <v>114.488434517548</v>
+        <v>4125.9940688988</v>
       </c>
       <c r="S21">
-        <v>0.003553861497470856</v>
+        <v>0.13785264287499</v>
       </c>
       <c r="T21">
-        <v>0.004778813042087392</v>
+        <v>0.1841213082413481</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>92.20254033333333</v>
+        <v>58.19014966666668</v>
       </c>
       <c r="H22">
-        <v>276.607621</v>
+        <v>174.570449</v>
       </c>
       <c r="I22">
-        <v>0.5202139294699846</v>
+        <v>0.1730235173629937</v>
       </c>
       <c r="J22">
-        <v>0.5256414498009485</v>
+        <v>0.1736877319926528</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N22">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O22">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P22">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q22">
-        <v>1388.583165775647</v>
+        <v>428.8292820807174</v>
       </c>
       <c r="R22">
-        <v>8331.498994653881</v>
+        <v>2572.975692484305</v>
       </c>
       <c r="S22">
-        <v>0.3879299287053222</v>
+        <v>0.1289476523738921</v>
       </c>
       <c r="T22">
-        <v>0.3477615553358573</v>
+        <v>0.1148183062463385</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>92.20254033333333</v>
+        <v>58.19014966666668</v>
       </c>
       <c r="H23">
-        <v>276.607621</v>
+        <v>174.570449</v>
       </c>
       <c r="I23">
-        <v>0.5202139294699846</v>
+        <v>0.1730235173629937</v>
       </c>
       <c r="J23">
-        <v>0.5256414498009485</v>
+        <v>0.1736877319926528</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>0.33124</v>
       </c>
       <c r="O23">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P23">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q23">
-        <v>10.18038982000444</v>
+        <v>6.424968391862222</v>
       </c>
       <c r="R23">
-        <v>91.62350838003999</v>
+        <v>57.82471552676</v>
       </c>
       <c r="S23">
-        <v>0.002844106132354478</v>
+        <v>0.001931968327086282</v>
       </c>
       <c r="T23">
-        <v>0.003824417886867233</v>
+        <v>0.00258041143387111</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>92.20254033333333</v>
+        <v>58.19014966666668</v>
       </c>
       <c r="H24">
-        <v>276.607621</v>
+        <v>174.570449</v>
       </c>
       <c r="I24">
-        <v>0.5202139294699846</v>
+        <v>0.1730235173629937</v>
       </c>
       <c r="J24">
-        <v>0.5256414498009485</v>
+        <v>0.1736877319926528</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N24">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O24">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P24">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q24">
-        <v>5.031953638691667</v>
+        <v>4.937026868169001</v>
       </c>
       <c r="R24">
-        <v>45.287582748225</v>
+        <v>44.43324181352101</v>
       </c>
       <c r="S24">
-        <v>0.001405782141407249</v>
+        <v>0.001484548865852386</v>
       </c>
       <c r="T24">
-        <v>0.001890329726262945</v>
+        <v>0.001982820739801292</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>92.20254033333333</v>
+        <v>58.19014966666668</v>
       </c>
       <c r="H25">
-        <v>276.607621</v>
+        <v>174.570449</v>
       </c>
       <c r="I25">
-        <v>0.5202139294699846</v>
+        <v>0.1730235173629937</v>
       </c>
       <c r="J25">
-        <v>0.5256414498009485</v>
+        <v>0.1736877319926528</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N25">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O25">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P25">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q25">
-        <v>458.2941404991185</v>
+        <v>135.21703268193</v>
       </c>
       <c r="R25">
-        <v>4124.647264492066</v>
+        <v>1216.95329413737</v>
       </c>
       <c r="S25">
-        <v>0.1280341124909006</v>
+        <v>0.04065934779616288</v>
       </c>
       <c r="T25">
-        <v>0.172165146851961</v>
+        <v>0.05430619357264193</v>
       </c>
     </row>
   </sheetData>
